--- a/Radar Chart Alaptare Dec si Ian.xlsx
+++ b/Radar Chart Alaptare Dec si Ian.xlsx
@@ -1,62 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Radu\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0D30B4-1C09-4A97-9607-8770E65A0094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Zi</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Ml_Dec</t>
-  </si>
-  <si>
-    <t>Ml_Ian</t>
-  </si>
-  <si>
-    <t>Obs</t>
-  </si>
-  <si>
-    <t>Avocado, Para, Dovleac</t>
-  </si>
-  <si>
-    <t>introdus morcov</t>
-  </si>
-  <si>
-    <t>introdus radacina patrunjel</t>
-  </si>
-  <si>
-    <t>introdus pastarnac</t>
-  </si>
-  <si>
-    <t>29 dec '21 prima banana</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,27 +52,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -160,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,557 +350,627 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Zi</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ml_Dec</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ml_Ian</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Obs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>850</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2">
+        <v>850</v>
+      </c>
+      <c r="C2">
         <v>910</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>725</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>850</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3">
+        <v>850</v>
+      </c>
+      <c r="C3">
         <v>790</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>875</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>850</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4">
+        <v>850</v>
+      </c>
+      <c r="C4">
         <v>880</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>795</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>850</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5">
+        <v>850</v>
+      </c>
+      <c r="C5">
         <v>610</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>745</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>850</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6">
+        <v>850</v>
+      </c>
+      <c r="C6">
         <v>480</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>775</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>850</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7">
+        <v>850</v>
+      </c>
+      <c r="C7">
         <v>900</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>745</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>850</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8">
+        <v>850</v>
+      </c>
+      <c r="C8">
         <v>650</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>745</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>850</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9">
+        <v>850</v>
+      </c>
+      <c r="C9">
         <v>623</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>820</v>
       </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>850</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10">
+        <v>850</v>
+      </c>
+      <c r="C10">
         <v>770</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>750</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>850</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11">
+        <v>850</v>
+      </c>
+      <c r="C11">
         <v>790</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>770</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>850</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12">
+        <v>850</v>
+      </c>
+      <c r="C12">
         <v>625</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>745</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>850</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13">
+        <v>850</v>
+      </c>
+      <c r="C13">
         <v>875</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>840</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>850</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14">
+        <v>850</v>
+      </c>
+      <c r="C14">
         <v>755</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>715</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>850</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15">
+        <v>850</v>
+      </c>
+      <c r="C15">
         <v>910</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>871</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <v>850</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16">
+        <v>850</v>
+      </c>
+      <c r="C16">
         <v>750</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>655</v>
       </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Avocado, Para, Dovleac</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
-        <v>850</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17">
+        <v>850</v>
+      </c>
+      <c r="C17">
         <v>650</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>745</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
-        <v>850</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18">
+        <v>850</v>
+      </c>
+      <c r="C18">
         <v>750</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>845</v>
       </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
-        <v>850</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19">
+        <v>850</v>
+      </c>
+      <c r="C19">
         <v>750</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>620</v>
       </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>introdus morcov</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
-        <v>850</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20">
+        <v>850</v>
+      </c>
+      <c r="C20">
         <v>735</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>710</v>
       </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>introdus radacina patrunjel</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
-        <v>850</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21">
+        <v>850</v>
+      </c>
+      <c r="C21">
         <v>645</v>
       </c>
-      <c r="D21" s="3">
-        <v>850</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>850</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
-        <v>850</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B22">
+        <v>850</v>
+      </c>
+      <c r="C22">
         <v>840</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>790</v>
       </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
-        <v>850</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23">
+        <v>850</v>
+      </c>
+      <c r="C23">
         <v>665</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>680</v>
       </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>introdus pastarnac</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
-        <v>850</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="B24">
+        <v>850</v>
+      </c>
+      <c r="C24">
         <v>820</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>710</v>
       </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
-        <v>850</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B25">
+        <v>850</v>
+      </c>
+      <c r="C25">
         <v>705</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>785</v>
       </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
-        <v>850</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B26">
+        <v>850</v>
+      </c>
+      <c r="C26">
         <v>720</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>690</v>
       </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
-        <v>850</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B27">
+        <v>850</v>
+      </c>
+      <c r="C27">
         <v>700</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>830</v>
       </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
-        <v>850</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="B28">
+        <v>850</v>
+      </c>
+      <c r="C28">
         <v>750</v>
       </c>
-      <c r="D28" s="3">
-        <v>500</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <v>795</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
-        <v>850</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B29">
+        <v>850</v>
+      </c>
+      <c r="C29">
         <v>810</v>
       </c>
-      <c r="D29" s="3">
-        <v>500</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <v>800</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
-        <v>850</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="B30">
+        <v>850</v>
+      </c>
+      <c r="C30">
         <v>800</v>
       </c>
-      <c r="D30" s="3">
-        <v>500</v>
-      </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>690</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29 dec '21 prima banana</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
-        <v>850</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="B31">
+        <v>850</v>
+      </c>
+      <c r="C31">
         <v>890</v>
       </c>
-      <c r="D31" s="3">
-        <v>500</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <v>300</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
-        <v>850</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B32">
+        <v>850</v>
+      </c>
+      <c r="C32">
         <v>930</v>
       </c>
-      <c r="D32" s="3">
-        <v>500</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
+      <c r="D32">
+        <v>300</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Radar Chart Alaptare Dec si Ian.xlsx
+++ b/Radar Chart Alaptare Dec si Ian.xlsx
@@ -946,7 +946,7 @@
         <v>890</v>
       </c>
       <c r="D31">
-        <v>300</v>
+        <v>795</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>930</v>
       </c>
       <c r="D32">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
